--- a/excel_data - copia (3).xlsx
+++ b/excel_data - copia (3).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5715" yWindow="1545" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,9 +59,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1154"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G2175" sqref="G2175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -449,142 +456,2163 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Televisor Samsung Crystal 4K 60" UN60AU700...</t>
+          <t>Impresora Multifuncional EPSON L3210 Negro</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>S/. 2,499.00</t>
+          <t>S/. 779.00</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>S/2,299.00
--28%</t>
+          <t>S/699.00
+-18%</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>S/. 3,199.00</t>
+          <t>S/. 859.00</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Televisor SAMSUNG LED 43'' FHD Smart Tv UN...</t>
+          <t>Impresora Multifuncional EPSON L5290 Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Laptop ASUS X415EA-EB642T 14'' Intel Core ...</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S/2,349.00
+-46%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S/. 4,399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Laptop ASUS X515EA-BQ1104T 15.6'' Intel Co...</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S/. 1,999.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional EPSON L4260 Negro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S/. 1,049.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S/944.10
+-17%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S/. 1,149.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Impresora Epson L4260 Ecotank</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S/. 1,099.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S/989.10
+-17%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S/. 1,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional HP Ink Tank 415</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S/. 729.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S/656.10
+-34%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S/. 999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HP Laptop 14-cf2064la 14" Intel Core i3-10...</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>S/. 1,499.00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tablet LENOVO TB-X606F 10.4'' 4GB 64GB HDD...</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>S/. 619.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S/569.00
+-36%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S/. 899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tablet SAMSUNG A7 Lite 8.7'' 32GB 3GB Plat...</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>S/. 569.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S/519.00
+-20%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S/. 649.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tablet SAMSUNG A7 Lite 8.7'' 32GB 3GB Gris</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S/. 569.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S/519.00
+-20%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S/. 649.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional CANON Pixma G2160...</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S/. 649.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S/584.10
+-22%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S/. 749.00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="1" t="n"/>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>Televisor PANASONIC LED 32'' HD Smart TV T...</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo Chromebook S330 14" HD Media...</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tablet Lenovo 10.1" Tab M10 HD 2da Gen 2GB...</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S/. 479.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Combo HYPERX Audífonos HX-HSCSC2-BK/WW + T...</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S/. 200.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S/180.00
+-54%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S/. 399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional Canon PIXMA G3110...</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tablet LENOVO M10 HD 2da Generación 10.1" ...</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>S/649.00
+-27%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>S/. 899.00</t>
         </is>
       </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>Televisor Xiaomi Mi LED TV 4A 32' Smart HD...</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>S/. 989.00</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Televisor PANASONIC LED 32'' HD Smart TV T...</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Multifuncional HP DeskJet Ink Advantage 27...</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tablet Lenovo 10.1" Yoga Smart 64GB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S/. 849.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S/789.00
+-34%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S/. 1,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional CANON G3110</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>S/. 719.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S/647.10
+-15%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S/. 769.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Laptop HP 15-EF1012LA 15.6'' AMD Ryzen 5 (...</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SOPORTE DE ENFRIAMIENTO PARA LAPTOPS DE HA...</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>S/. 69.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo Ideapad D330 10.1" HD Intel ...</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>S/. 799.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" customFormat="1" s="2">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Memoria MicroSD Kingston Canvas Select 128...</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>S/. 89.90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S/80.91
+-37%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S/. 129.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customFormat="1" s="2"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Netbook LENOVO CT-X636F 10.1'' MediaTek P6...</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>S/. 769.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Notebook HP 15-EH1021LA 15" AMD Ryzen 7 16...</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>S/. 3,549.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional EPSON L6270 Negro</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Netbook LENOVO D330-10IGL 10.1'' Intel Cel...</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional CANON Pixma G4110...</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cooler para laptop Teraware máx 15.6", 2 p...</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S/. 59.90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>S/53.91
+-55%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>S/. 119.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Teclado inalámbrico Logitech K380, conexió...</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Teclado inalámbrico Logitech MX KEYS, memb...</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>S/. 399.90</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mouse Gamer Logitech G502 Hero 16000 Dpi R...</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>S/. 255.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>S/229.50
+-36%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>S/. 364.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Impresora Epson L3250 Ecotank</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>S/. 949.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>S/854.10
+-14%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>S/. 999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mouse inalámbrico Logitech Pebbble M350 3 ...</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tablet Lenovo P11 11" 6GB RAM 128GB ZA7S01...</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>S/1,599.00
+-15%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>S/. 1,899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ipad Air 10.9" 4ta Gen A14 Bionic 64 bits ...</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HP Laptop 15.6" 15-ef1009la AMD Ryzen™ 3 4...</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>S/. 1,999.00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Impresora HP DeskJet Ink Advantage 1275</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ipad APPLE MYLC2LL/A 10.2" 3GB 32GB Silver</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>All in One LENOVO AIO3 24IMB05 23.8" Intel...</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>S/. 1,849.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>S/1,749.00
+-48%</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>S/. 3,399.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mouse inalámbrico HP Z3700</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>S/. 49.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>S/44.10
+-36%</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>S/. 69.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tablet LENOVO 64GB YT-X705F</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>S/. 659.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Impresora HP Smartank 515 Negro</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>S/. 899.00</t>
         </is>
       </c>
-      <c r="C1153" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Televisor Xiaomi Mi LED TV 4A 32' Smart HD...</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>S/. 989.00</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>S/0</t>
-        </is>
-      </c>
-    </row>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>S/809.10
+-19%</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>S/. 999.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tinta Epson T544220 Cyan</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tinta Epson T544420 Amarillo</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mouse Pad - Negro</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>S/. 25.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>S/22.50
+-50%</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>S/. 45.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" customFormat="1" s="2">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SAMSUNG GALAXY A52S 5G / 8GB RAM + 128GB /...</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>S/1,979.10
+-23%</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>S/. 2,599.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MEMORIA RAM PARA PC ADATA XPG SPECTRIX RGB...</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>S/. 219.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>S/197.10
+-62%</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>S/. 519.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Multifuncional HP Smart Tank 790 Tinta Con...</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>S/. 1,599.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>S/1,439.10
+-15%</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>S/. 1,699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MONITOR LG 24" MOD: 24MK430H-B</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>S/. 672.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>S/604.80
+-13%</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DISCO SOLIDO INTERNO WESTERN DIGITAL BLUE ...</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>S/. 579.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>S/521.10
+-41%</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>S/. 879.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MANDO DE JUEGOS TRUST GXT1230 MUTA WIRELES...</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>S/. 129.00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>S/116.10
+-97%</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>S/. 4,290.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TECLADO GAMER EN ESPAÑOL TRUST GXT865 ASTA...</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>S/. 249.00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>S/224.10
+-96%</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>S/. 5,490.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional Epson L3210 Ecota...</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>S/. 829.00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>S/746.10
+-17%</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>S/. 899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Impresora multifuncional Brother InkBenef...</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Cooler Teros TE 7020 para Laptop 2 Ventila...</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>S/. 59.90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>S/53.91
+-46%</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>S/. 99.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>All in One Lenovo IdeaCentre A540 23.8" Fu...</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>S/. 2,199.00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>COOLER LAPTOP ESCRITORIO NUOXI Q5 APPLE Y ...</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>S/. 149.00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>S/134.10
+-39%</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S/. 220.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>KIT TECLADO Y MOUSE INALAMBRICO SMARTER MI...</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>S/. 74.90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>S/67.41
+-41%</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>S/. 115.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Kit Teclado Español Mouse Inalámbrico Micr...</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>S/. 129.90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>S/116.91
+-41%</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>S/. 199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Trípode XIAOMI Mi Selffie Stick Negro</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>S/. 60.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>S/54.00
+-55%</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>S/. 119.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Notebook ACER A315-57G-57MY 15.6" Intel Co...</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>S/. 2,549.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Netbook LENOVO D330-10IGL 10.1'' Intel Cel...</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Notebook ASUS UM425UA-KI174T 14'' AMD Ryze...</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>S/. 3,199.00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Notebook ACER AN515-55-51G3 15.6" Intel Co...</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S/. 3,999.00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Tableta gráfica One By Wacom Small, incluy...</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S/. 199.90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Router Inalambrico ARCHER C50 Doble Band A...</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tablet Gráfica Wacom Intuos Pen con 3 sof...</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>S/. 325.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mouse Gamer Logitech G502 Lightspeed Wirel...</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>S/. 425.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>S/382.50
+-38%</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>S/. 613.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Rack para monitor y laptop 13-32"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" customFormat="1" s="2">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Monitor Huawei MateView GT 34" - UWQHD 165...</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>S/. 2,249.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Laptop Gamer ASUS TUF 15.6" FX516PC Ci7-11...</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>S/. 5,799.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Laptop Gaming Katana GF66 11SC 15.6" 144hz...</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>S/. 4,399.00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>S/4,269.00
+-17%</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>S/. 5,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Apple Macbook Air 13.3" M1 Chip 8GB RAM 25...</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>S/. 5,299.00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ipad Apple 2020 10.2" WIFI 3GB RAM 32GB SP...</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>HP Impresora Multifuncional Ink Tank 515 |...</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>S/. 999.00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>S/899.10
+-25%</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>S/. 1,199.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Kit inalámbrico Logitech MK235 teclado y m...</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Mouse inalámbrico Teraware MTP196 800-1200...</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>S/. 39.90</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hub Baseus Dockins Station 10 en 1 tipo C ...</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>S/. 349.90</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Mouse inalámbrico Logitech Pebbble M350 3 ...</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Laptop Gamer Asus 15.6" FX506LH-HN002T Int...</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>S/. 4,299.00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Tab A7 Lite 8.7 " 3GB RAM 3...</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>S/. 579.00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Notebook HP 15-EC1038 15.6'' AMD Ryzen 7 8...</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>S/. 4,199.00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Disco Externo Toshiba 1TB Canvio Basics Ne...</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mouse Inalámbrico HP 200 Negro</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>S/. 34.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>S/30.60
+-38%</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>S/. 49.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Mouse Inalámbrico LOGITECH M350 Gris</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Laptop Lenovo IdeaPad 3i Core i5-10 256GB ...</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>S/. 2,499.00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Mouse inalámbrico Fiddler 223 con pilas Bl...</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Tinta Epson T544320 Magenta</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>S/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>microsoft Office 365 Personal</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>S/. 189.00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>S/170.10
+-22%</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S/. 219.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Impresora Multifuncional HP Ink Tank 315</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>S/. 699.00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>S/629.10
+-30%</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S/. 899.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Mouse Pad Hello Kitty Rojo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>S/. 29.00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>S/26.10
+-46%</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S/. 49.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mouse Pad Hello Kitty Rayas</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>S/. 29.00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>S/26.10
+-46%</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>S/. 49.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Mouse Pad Hello Kitty Fucsia</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>S/. 29.00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>S/26.10
+-46%</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>S/. 49.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" customFormat="1" s="2">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Mouse Pad Hello Kitty Azul</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>S/. 29.00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>S/26.10
+-46%</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>S/. 49.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" customFormat="1" s="2"/>
+    <row r="168" customFormat="1" s="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
